--- a/streamlit/LLMsTeamOutput/debate.xlsx
+++ b/streamlit/LLMsTeamOutput/debate.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,8 +539,6 @@
           <t>Round 4: ['Role1(Management): Round 4\n{\n\t"Final Claim": "❌ No, the code \'Bias Towards Quality\' should not be retained.",\n\t"Final Explanation": "I continue to support my initial claim because the evidence consistently highlights the subjective nature of quality assessments, which undermines the objective criteria necessary for effective data annotation.",\n\t"Self-Reflection": {\n\t\t"Strengths": "The strongest evidence comes from the literature that emphasizes the impact of personal bias on quality evaluations, reinforcing the need for objective measures.",\n\t\t"Weaknesses": "A limitation is the potential for personal biases to exist in any assessment, which could complicate the argument for completely removing the code.",\n\t\t"Future Consideration": "Further empirical studies on the impact of bias in quality assessments would help strengthen the argument for objective criteria in data annotation."\n\t}\n}', 'Role2(Product Owners): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'Bias Towards Quality\' should be retained.",\n\t"Final Explanation": "I continue to support this position because the accumulated evidence highlights the critical role of personal biases in shaping quality perceptions, which is essential for accurate data annotation.",\n\t"Self-Reflection": {\n\t\t"Strengths": "The strongest evidence comes from Kahneman\'s work on biases in decision-making, which aligns with the subjective nature of quality assessments.",\n\t\t"Weaknesses": "A limitation is that while biases are acknowledged, the potential for misinterpretation due to these biases remains an unresolved issue.",\n\t\t"Future Consideration": "Further qualitative studies exploring the impact of personal biases on quality perception in various contexts would help strengthen and verify this stance."\n\t}\n}', 'Role3(Scrum Masters): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'Bias Towards Quality\' should be retained.",\n\t"Final Explanation": "I continue to support this position because the accumulated evidence highlights the significant impact of personal biases on quality assessments, which is essential for robust data annotation.",\n\t"Self-Reflection": {\n\t\t"Strengths": "The strongest evidence comes from Kahneman\'s work, which underscores how personal biases shape perceptions of quality, reinforcing the need to acknowledge these influences.",\n\t\t"Weaknesses": "A limitation is that the subjective nature of bias may complicate the annotation process, potentially leading to inconsistencies in quality assessments.",\n\t\t"Future Consideration": "Further empirical studies examining the effects of personal bias on quality evaluations would help strengthen and verify this stance."\n\t}\n}']</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -568,11 +566,103 @@
           <t>Round 4: ['Role1(Management): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'Bias in Quality Perception\' should be retained.",\n\t"Final Explanation": "I continue to support this position because the evidence consistently highlights the significant impact of personal bias on quality assessments, which is crucial for accurate data annotation.",\n\t"Self-Reflection": {\n\t\t"Strengths": "The strongest evidence comes from Kahneman\'s work, which underscores how personal biases shape decision-making and perceptions of quality.",\n\t\t"Weaknesses": "A limitation is the variability of personal biases among individuals, which may complicate the application of this code in diverse contexts.",\n\t\t"Future Consideration": "Further empirical studies examining the effects of personal bias on quality assessments would help strengthen and verify this stance."\n\t}\n}', 'Role2(Product Owners): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'Bias in Quality Perception\' should be retained.",\n\t"Final Explanation": "I continue to support this position because the accumulated evidence consistently highlights the significant role of personal biases in quality assessment, which is crucial for understanding data interpretation.",\n\t"Self-Reflection": {\n\t\t"Strengths": "The strongest evidence comes from Kahneman\'s work, which underscores how personal biases shape decision-making and perceptions of quality.",\n\t\t"Weaknesses": "A limitation is that the focus on subjective bias may overlook other factors influencing quality, such as technical aspects emphasized by other roles.",\n\t\t"Future Consideration": "Further exploration of how subjective biases interact with technical considerations in quality assessment would strengthen and verify my stance."\n\t}\n}', 'Role3(Scrum Masters): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'Bias in Quality Perception\' should be retained.",\n\t"Final Explanation": "I maintain this position because the accumulated evidence consistently highlights the significant role of personal biases in quality assessments, which is crucial for robust data annotation.",\n\t"Self-Reflection": {\n\t\t"Strengths": "The strongest evidence supporting my decision comes from Kahneman\'s work on cognitive biases, which underscores the importance of recognizing subjective influences in decision-making.",\n\t\t"Weaknesses": "A limitation is that personal biases can vary widely among individuals, and this code may not capture the full spectrum of biases affecting quality perception.",\n\t\t"Future Consideration": "Further empirical studies examining the impact of various biases on quality assessments would help strengthen and verify my stance."\n\t}\n}']</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>For the software or the end product, I believe the key attributes is conformity to business needs and free of defects.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Defect-Free Product</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n{\n  "Initial Claim": "✅ Yes, the code \'Defect-Free Product\' should be retained.",\n  "Explanation": "This code captures the critical aspect of quality assurance in software development, emphasizing the subjective nature of defining defects, which is essential for understanding user expectations and product reliability."\n}', 'Role2(Product Owners): Round 1\n{\n  "Initial Claim": "✅ Yes, the code \'Defect-Free Product\' should be retained.",\n  "Explanation": "The code captures the critical aspect of quality assurance in software development, emphasizing the subjective interpretation of what constitutes a defect, which is essential for understanding user expectations and product standards."\n}', 'Role3(Scrum Masters): Round 1\n{\n  "Initial Claim": "✅ Yes, the code \'Defect-Free Product\' should be retained.",\n  "Explanation": "The code captures the critical aspect of quality assurance in software development, emphasizing the subjective interpretation of what constitutes a defect, which is essential for understanding user expectations and legal compliance."\n}']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\n{\n  "Evidence_Literature": {\n    "Author": "Boehm, B. W.",\n    "Year": "1981",\n    "Title": "Software Engineering Economics",\n    "DOI_or_Link": "https://doi.org/10.5555/58143",\n    "Summary": "This reference discusses the economic implications of software quality, emphasizing that defect-free products lead to reduced costs and increased customer satisfaction, supporting the importance of the \'Defect-Free Product\' code."\n  },\n  "Evidence_Content": {\n    "Observation": "The code \'Defect-Free Product\' directly relates to the phrase [free of defects], highlighting the necessity for quality assurance in software.",\n    "Relevance": "This observation is crucial as it underscores the subjective interpretation of what constitutes a defect, which is vital for effective software development."\n  },\n  "Evidence_Logic": {\n    "Reasoning": "Retaining this code ensures that the annotation captures the nuanced understanding of quality in software, which varies among stakeholders.",\n    "Impact": "This clarity enhances the efficiency of data annotation by ensuring that all contributors have a shared understanding of quality expectations."\n  }\n}', 'Role2(Product Owners): Round 2\n{\n  "Evidence_Literature": {\n    "Author": "Boehm, B. W.",\n    "Year": "1981",\n    "Title": "Software Engineering Economics",\n    "DOI_or_Link": "https://doi.org/10.5555/58143",\n    "Summary": "This reference discusses the importance of defect management in software engineering, emphasizing that subjective interpretations of defects can significantly impact project costs and quality."\n  },\n  "Evidence_Content": {\n    "Observation": "The code \'Defect-Free Product\' highlights the subjective nature of defining defects in software, as mentioned in the target text.",\n    "Relevance": "This observation is crucial because it underscores the variability in quality standards based on user expectations and business needs."\n  },\n  "Evidence_Logic": {\n    "Reasoning": "Retaining this code ensures that annotations reflect the nuanced understanding of quality, which is essential for effective communication among stakeholders.",\n    "Impact": "This clarity enhances the efficiency of the annotation process by ensuring that all parties have a shared understanding of what constitutes a defect."\n  }\n}', 'Role3(Scrum Masters): Round 2\n{\n  "Evidence_Literature": {\n    "Author": "Boehm, B. W.",\n    "Year": "1981",\n    "Title": "Software Engineering Economics",\n    "DOI_or_Link": "https://doi.org/10.5555/58143",\n    "Summary": "This reference discusses the economic implications of software quality and defect management, supporting the importance of defining defects in software development."\n  },\n  "Evidence_Content": {\n    "Observation": "The code \'Defect-Free Product\' emphasizes the subjective nature of quality assurance, as it relies on human judgment to determine what constitutes a defect.",\n    "Relevance": "This observation is crucial because it highlights the variability in quality standards across different contexts, reinforcing the need for this code."\n  },\n  "Evidence_Logic": {\n    "Reasoning": "Retaining this code ensures that annotators recognize the subjective nature of quality assessments, which can vary based on user expectations and industry standards.",\n    "Impact": "This clarity enhances the efficiency of the annotation process by ensuring that all stakeholders have a shared understanding of what \'defect-free\' entails."\n  }\n}']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Round 3: ['Role1(Management): Round 3\n{\n  "Role": "Data Annotator",\n  "TwoLayerMechanism": {\n    "DecisionPattern": "In this case, accuracy is prioritized over efficiency, as understanding the nuances of quality in software is essential for effective data annotation.",\n    "Self-Check": {\n      "First_Stance": "✅ Yes, the code \'Defect-Free Product\' should be retained.",\n      "Then_EvidenceConsistency": "The literature by Boehm (1981) supports the importance of defect-free products for customer satisfaction, while the content observation emphasizes the subjective nature of defining defects, reinforcing my initial claim.",\n      "Finally_LimitationsDecision": "While the evidence is strong, the subjective interpretation of defects may vary among stakeholders, but this does not undermine the necessity of the code. Therefore, I will Continue to Support."\n    },\n    "Cross-Debate": {\n      "PerRoleAnalysis": [\n        {\n          "OtherRole": "Developer",\n          "Example": "The emphasis on quality assurance aligns with my stance on the importance of a defect-free product.",\n          "Counterexample": "However, their claim lacks a nuanced understanding of how different stakeholders may define defects, which is critical for comprehensive annotation.",\n          "Summary": "We converge on the importance of quality but diverge on the interpretation of defects."\n        }\n      ],\n      "Consensus": "The Developer role aligns closely with my stance on the importance of quality in software, emphasizing the need for a defect-free product.",\n      "Divergence": "Roles that downplay the subjective nature of defects conflict with my stance, as they overlook the complexities involved in quality assurance.",\n      "HybridPerspective": "By prioritizing textual evidence regarding defect definitions and combining it with logical reasoning about stakeholder perspectives, a more comprehensive understanding of quality can be achieved."\n    }\n  }\n}', 'Role2(Product Owners): Round 3\n{\n  "Role": "Psychologist focused on Scalability",\n  "TwoLayerMechanism": {\n    "DecisionPattern": "In this context, accuracy is prioritized over efficiency, as understanding the subjective nature of defects is crucial for effective software development.",\n    "Self-Check": {\n      "First_Stance": "I continue to support my initial claim that the code \'Defect-Free Product\' should be retained.",\n      "Then_EvidenceConsistency": "The literature by Boehm (1981) emphasizes the importance of subjective interpretations of defects, which aligns with my claim that understanding these nuances is essential for quality assurance.",\n      "Finally_LimitationsDecision": "While the evidence is strong, it could be enhanced by more recent studies on software quality. Nonetheless, I will continue to support my initial claim."\n    },\n    "Cross-Debate": {\n      "PerRoleAnalysis": [\n        {\n          "OtherRole": "Developer",\n          "Example": "The Developer\'s emphasis on quality assurance aligns with my stance on the importance of defect definitions.",\n          "Counterexample": "However, their focus on efficiency may overlook the subjective nature of defects, which is critical for comprehensive understanding.",\n          "Summary": "We converge on the importance of quality but diverge on the prioritization of efficiency over subjective interpretation."\n        },\n        {\n          "OtherRole": "Legal Professional",\n          "Example": "The Legal Professional\'s focus on justice and equity resonates with the need for clear definitions in software quality.",\n          "Counterexample": "However, their approach may not fully account for the subjective nature of defects, which is essential in software development.",\n          "Summary": "While we share a commitment to clarity, our perspectives diverge on the interpretation of quality standards."\n        }\n      ],\n      "Consensus": "The Developer\'s and Legal Professional\'s roles align closely with my emphasis on quality, though we differ in prioritization.",\n      "Divergence": "The main conflict arises from differing views on the balance between efficiency and subjective interpretation of defects.",\n      "HybridPerspective": "By prioritizing textual evidence on defect definitions while using logical reasoning to assess implications, we can achieve a more nuanced understanding of quality in software."\n    }\n  }\n}', 'Role3(Scrum Masters): Round 3\n{\n  "Role": "Legal Professional focused on Robustness",\n  "TwoLayerMechanism": {\n    "DecisionPattern": "In my role, accuracy takes precedence over efficiency, as understanding the subjective nature of defects is crucial for legal compliance and user trust.",\n    "Self-Check": {\n      "First_Stance": "I continue to support my initial claim that the code \'Defect-Free Product\' should be retained.",\n      "Then_EvidenceConsistency": "The literature by Boehm (1981) emphasizes the economic implications of quality and defect management, reinforcing the importance of defining defects. Additionally, the observation about the subjective nature of quality assurance aligns with my stance on the necessity of this code.",\n      "Finally_LimitationsDecision": "While the evidence is strong, the subjective interpretation of defects may vary across contexts. However, this does not weaken my stance. Therefore, I will continue to support."\n    },\n    "Cross-Debate": {\n      "PerRoleAnalysis": [\n        {\n          "OtherRole": "Data Annotator focused on Efficiency",\n          "Example": "Their emphasis on quality assurance aligns with the need for a defect-free product, which I support.",\n          "Counterexample": "However, they may overlook the subjective nature of what constitutes a defect, which is critical in legal contexts.",\n          "Summary": "We converge on the importance of quality but diverge on the interpretation of defects."\n        },\n        {\n          "OtherRole": "Data Annotator focused on Scalability",\n          "Example": "Their focus on the significance of quality in software development supports the need for a defect-free product.",\n          "Counterexample": "They may not fully address the legal implications of subjective defect definitions, which is essential in my perspective.",\n          "Summary": "We share a common ground on quality but differ in the emphasis on legal considerations."\n        }\n      ],\n      "Consensus": "Roles emphasizing quality assurance align closely with my stance, as they recognize the importance of defect definitions.",\n      "Divergence": "Roles that do not consider the subjective nature of defects conflict with my stance, as this is crucial for legal compliance.",\n      "HybridPerspective": "A synthesis of textual evidence regarding quality assurance and logical reasoning about legal implications supports the retention of the code."\n    }\n  }\n}']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4\n{\n  "Final Claim": "✅ Yes, the code \'Defect-Free Product\' should be retained.",\n  "Final Explanation": "I maintain this position because the accumulated evidence consistently highlights the importance of quality assurance and the subjective nature of defining defects in software development.",\n  "Self-Reflection": {\n    "Strengths": "The strongest evidence comes from Boehm\'s literature, which emphasizes the economic benefits of defect-free products, reinforcing the necessity of this code.",\n    "Weaknesses": "A limitation is the variability in how different stakeholders interpret defects, which could lead to inconsistencies in understanding quality.",\n    "Future Consideration": "Further empirical studies on stakeholder perspectives regarding defects would enhance the clarity and applicability of this code in data annotation."\n  }\n}', 'Role2(Product Owners): Round 4\n{\n  "Final Claim": "✅ Yes, the code \'Defect-Free Product\' should be retained.",\n  "Final Explanation": "I continue to support this position because the emphasis on subjective interpretations of defects is crucial for understanding quality assurance in software development.",\n  "Self-Reflection": {\n    "Strengths": "The strongest evidence comes from Boehm\'s literature, which highlights the importance of subjective interpretations in defining software quality.",\n    "Weaknesses": "A limitation is the lack of more recent studies that could provide additional insights into evolving standards of quality in software.",\n    "Future Consideration": "Further empirical research on user expectations and defect definitions would help strengthen and verify my stance."\n  }\n}', 'Role3(Scrum Masters): Round 4\n{\n  "Final Claim": "✅ Yes, the code \'Defect-Free Product\' should be retained.",\n  "Final Explanation": "I continue to support this code because it captures the essential aspect of quality assurance in software development, which is critical for legal compliance and user trust.",\n  "Self-Reflection": {\n    "Strengths": "The strongest evidence comes from Boehm\'s literature on the economic implications of quality and defect management, which underscores the importance of defining defects.",\n    "Weaknesses": "A limitation is the subjective nature of defect definitions, which may vary across contexts and could lead to inconsistencies in interpretation.",\n    "Future Consideration": "Further empirical studies on how different industries define and interpret defects would help strengthen and clarify my stance."\n  }\n}']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Defect-Free Assurance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n{\n  "Initial Claim": "✅ Yes, the code \'Defect-Free Assurance\' should be retained.",\n  "Explanation": "This code captures the critical aspect of quality assurance in software development, emphasizing the legal implications of being \'free of defects,\' which is essential for minimizing liabilities and ensuring user trust."\n}', 'Role2(Product Owners): Round 1\n{\n  "Initial Claim": "✅ Yes, the code \'Defect-Free Assurance\' should be retained.",\n  "Explanation": "This code highlights the critical importance of quality assurance in software development, emphasizing the legal implications of being \'free of defects\' and the necessity for user trust."\n}', 'Role3(Scrum Masters): Round 1\n{\n  "Initial Claim": "✅ Yes, the code \'Defect-Free Assurance\' should be retained.",\n  "Explanation": "This code highlights the critical importance of quality assurance in software development, emphasizing the legal implications of being \'free of defects,\' which is essential for minimizing liabilities and ensuring user trust."\n}']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\n{\n  "Evidence_Literature": {\n    "Author": "Boehm, B. W.",\n    "Year": "1981",\n    "Title": "Software Engineering Economics",\n    "DOI_or_Link": "https://doi.org/10.5555/58143",\n    "Summary": "This reference discusses the economic implications of software quality, emphasizing that defect-free products lead to reduced costs and increased customer satisfaction, supporting the importance of \'Defect-Free Assurance\' in minimizing legal liabilities."\n  },\n  "Evidence_Content": {\n    "Observation": "The code \'Defect-Free Assurance\' directly relates to the phrase [free of defects], highlighting the necessity for quality assurance in software development.",\n    "Relevance": "This observation is crucial as it underscores the legal implications of defects, which is vital for ensuring user trust and minimizing liabilities."\n  },\n  "Evidence_Logic": {\n    "Reasoning": "Retaining this code ensures that the annotation captures the legal and quality assurance aspects of software, which are essential for stakeholder confidence.",\n    "Impact": "This clarity enhances the efficiency of data annotation by ensuring that all contributors understand the importance of legal implications in software quality."\n  }\n}', 'Role2(Product Owners): Round 2\n{\n  "Evidence_Literature": {\n    "Author": "Boehm, B. W.",\n    "Year": "1981",\n    "Title": "Software Engineering Economics",\n    "DOI_or_Link": "https://doi.org/10.5555/58143",\n    "Summary": "This reference discusses the importance of quality assurance in software development, emphasizing that ensuring products are free of defects is crucial for minimizing risks and maintaining user trust."\n  },\n  "Evidence_Content": {\n    "Observation": "The code \'Defect-Free Assurance\' directly relates to the phrase [free of defects] in the target text, highlighting the necessity of quality assurance.",\n    "Relevance": "This observation is significant as it underscores the legal and user trust implications of software quality."\n  },\n  "Evidence_Logic": {\n    "Reasoning": "Retaining this code ensures that annotations reflect the critical nature of quality assurance, which is essential for both legal compliance and user satisfaction.",\n    "Impact": "This clarity enhances the efficiency of the annotation process by ensuring that all stakeholders understand the importance of being \'free of defects.\'"\n  }\n}', 'Role3(Scrum Masters): Round 2\n{\n  "Evidence_Literature": {\n    "Author": "Boehm, B. W.",\n    "Year": "1981",\n    "Title": "Software Engineering Economics",\n    "DOI_or_Link": "https://doi.org/10.5555/58143",\n    "Summary": "This reference discusses the economic implications of software quality and defect management, supporting the importance of quality assurance in minimizing legal liabilities."\n  },\n  "Evidence_Content": {\n    "Observation": "The code \'Defect-Free Assurance\' emphasizes the necessity of being [free of defects], which is crucial for ensuring user trust and legal compliance.",\n    "Relevance": "This observation is significant as it highlights the dual focus on quality assurance and legal implications, reinforcing the need for this code."\n  },\n  "Evidence_Logic": {\n    "Reasoning": "Retaining this code ensures that annotators recognize the importance of quality assurance in software development, which can directly impact user satisfaction and legal standing.",\n    "Impact": "This clarity enhances the efficiency of the annotation process by ensuring that all stakeholders understand the critical nature of defect management."\n  }\n}']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Round 3: ['Role1(Management): Round 3\n{\n  "Role": "Data Annotator",\n  "TwoLayerMechanism": {\n    "DecisionPattern": "In this case, accuracy is prioritized over efficiency, as understanding the legal implications of software quality is essential for effective data annotation.",\n    "Self-Check": {\n      "First_Stance": "✅ Yes, the code \'Defect-Free Assurance\' should be retained.",\n      "Then_EvidenceConsistency": "The literature by Boehm (1981) supports the importance of defect-free products for minimizing legal liabilities, while the content observation emphasizes the necessity of quality assurance, reinforcing my initial claim.",\n      "Finally_LimitationsDecision": "While the evidence is strong, the subjective interpretation of what constitutes a defect may vary among stakeholders, but this does not undermine the necessity of the code. Therefore, I will Continue to Support."\n    },\n    "Cross-Debate": {\n      "PerRoleAnalysis": [\n        {\n          "OtherRole": "Developer",\n          "Example": "The emphasis on quality assurance aligns with my stance on the importance of defect-free products.",\n          "Counterexample": "However, their claim lacks a nuanced understanding of how different stakeholders may define defects, which is critical for comprehensive annotation.",\n          "Summary": "We converge on the importance of quality but diverge on the interpretation of defects."\n        }\n      ],\n      "Consensus": "The Developer role aligns closely with my stance on the importance of quality in software, emphasizing the need for defect-free assurance.",\n      "Divergence": "Roles that downplay the legal implications of defects conflict with my stance, as they overlook the complexities involved in quality assurance.",\n      "HybridPerspective": "By prioritizing textual evidence regarding defect definitions and combining it with logical reasoning about stakeholder perspectives, a more comprehensive understanding of quality can be achieved."\n    }\n  }\n}', 'Role2(Product Owners): Round 3\n{\n  "Role": "Legal Professional",\n  "TwoLayerMechanism": {\n    "DecisionPattern": "In this context, accuracy is prioritized over efficiency, as understanding the legal implications of being \'free of defects\' is crucial for minimizing liabilities and ensuring user trust.",\n    "Self-Check": {\n      "First_Stance": "I continue to support my initial claim that the code \'Defect-Free Assurance\' should be retained.",\n      "Then_EvidenceConsistency": "The literature by Boehm (1981) emphasizes the necessity of quality assurance in software development, which aligns with my claim that being \'free of defects\' is essential for legal compliance and user trust.",\n      "Finally_LimitationsDecision": "While the evidence is strong, it could be enhanced by more recent studies on the evolving standards of software quality. Nonetheless, I will continue to support my initial claim."\n    },\n    "Cross-Debate": {\n      "PerRoleAnalysis": [\n        {\n          "OtherRole": "Psychologist focused on Scalability",\n          "Example": "The Psychologist\'s emphasis on subjective interpretations of defects aligns with my stance on the importance of quality assurance.",\n          "Counterexample": "However, their focus on user satisfaction may overlook the legal implications of defects, which are critical in my field.",\n          "Summary": "We converge on the importance of quality but diverge on the prioritization of legal implications versus user satisfaction."\n        },\n        {\n          "OtherRole": "Developer",\n          "Example": "The Developer\'s focus on quality assurance resonates with my emphasis on being \'free of defects.\'",\n          "Counterexample": "However, their approach may prioritize efficiency over the legal aspects of quality assurance, which is essential in my perspective.",\n          "Summary": "While we share a commitment to quality, our perspectives diverge on the balance between efficiency and legal compliance."\n        }\n      ],\n      "Consensus": "The Psychologist\'s and Developer\'s roles align closely with my emphasis on quality assurance, though we differ in prioritization.",\n      "Divergence": "The main conflict arises from differing views on the balance between legal implications and user satisfaction.",\n      "HybridPerspective": "By prioritizing textual evidence on defect definitions while using logical reasoning to assess implications, we can achieve a more nuanced understanding of quality in software."\n    }\n  }\n}', 'Role3(Scrum Masters): Round 3\n{\n  "Role": "Legal Professional focused on Robustness",\n  "TwoLayerMechanism": {\n    "DecisionPattern": "In my role, accuracy is prioritized over efficiency, as understanding the legal implications of being \'free of defects\' is crucial for compliance and user trust.",\n    "Self-Check": {\n      "First_Stance": "I continue to support my initial claim that the code \'Defect-Free Assurance\' should be retained.",\n      "Then_EvidenceConsistency": "The literature by Boehm (1981) emphasizes the economic implications of quality and defect management, reinforcing the importance of quality assurance. Additionally, the observation about the necessity of being [free of defects] aligns with my stance on legal compliance.",\n      "Finally_LimitationsDecision": "While the subjective nature of defect definitions may vary, this does not weaken my stance. Therefore, I will continue to support."\n    },\n    "Cross-Debate": {\n      "PerRoleAnalysis": [\n        {\n          "OtherRole": "Data Annotator focused on Efficiency",\n          "Example": "Their emphasis on quality assurance aligns with the need for a defect-free product, which I support.",\n          "Counterexample": "However, they may not fully address the legal implications of subjective defect definitions, which is essential in my perspective.",\n          "Summary": "We converge on the importance of quality but diverge on the interpretation of defects."\n        },\n        {\n          "OtherRole": "Data Annotator focused on Scalability",\n          "Example": "Their focus on the significance of quality in software development supports the need for a defect-free product.",\n          "Counterexample": "They may not fully address the legal implications of subjective defect definitions, which is essential in my perspective.",\n          "Summary": "We share a common ground on quality but differ in the emphasis on legal considerations."\n        }\n      ],\n      "Consensus": "Roles emphasizing quality assurance align closely with my stance, as they recognize the importance of defect definitions.",\n      "Divergence": "Roles that do not consider the subjective nature of defects conflict with my stance, as this is crucial for legal compliance.",\n      "HybridPerspective": "A synthesis of textual evidence regarding quality assurance and logical reasoning about legal implications supports the retention of the code."\n    }\n  }\n}']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4\n{\n  "Final Claim": "✅ Yes, the code \'Defect-Free Assurance\' should be retained.",\n  "Final Explanation": "I maintain this position because the accumulated evidence consistently highlights the importance of quality assurance and the legal implications of being \'free of defects,\' which are essential for minimizing liabilities and ensuring user trust.",\n  "Self-Reflection": {\n    "Strengths": "The strongest evidence comes from Boehm\'s literature, which emphasizes the economic benefits of defect-free products and the necessity of quality assurance.",\n    "Weaknesses": "A limitation is the variability in how different stakeholders interpret defects, which could lead to inconsistencies in understanding quality assurance.",\n    "Future Consideration": "Further empirical studies on stakeholder perspectives regarding defects would enhance the clarity and applicability of this code in data annotation."\n  }\n}', 'Role2(Product Owners): Round 4\n{\n  "Final Claim": "✅ Yes, the code \'Defect-Free Assurance\' should be retained.",\n  "Final Explanation": "I maintain this position because the emphasis on being \'free of defects\' is essential for legal compliance and user trust, which are critical in software development.",\n  "Self-Reflection": {\n    "Strengths": "The strongest evidence comes from Boehm\'s literature, which underscores the importance of quality assurance in minimizing legal liabilities.",\n    "Weaknesses": "A limitation is the lack of more recent studies that could provide additional insights into evolving standards of software quality.",\n    "Future Consideration": "Further empirical research on the legal implications of software defects would help strengthen and verify my stance."\n  }\n}', 'Role3(Scrum Masters): Round 4\n{\n  "Final Claim": "✅ Yes, the code \'Defect-Free Assurance\' should be retained.",\n  "Final Explanation": "I maintain this position because the code emphasizes the critical importance of quality assurance in software development, which is essential for minimizing legal liabilities and ensuring user trust.",\n  "Self-Reflection": {\n    "Strengths": "The strongest evidence comes from Boehm\'s literature on the economic implications of quality and defect management, which underscores the necessity of defining defects.",\n    "Weaknesses": "A limitation is the subjective nature of defect definitions, which may vary across contexts and could lead to inconsistencies in interpretation.",\n    "Future Consideration": "Further empirical studies on how different industries define and interpret defects would help strengthen and clarify my stance."\n  }\n}']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Okay, so firstly, the sprint planning meeting right. So, during the sprint planning meeting, each and every user story. So, they user stories are already there in the black block. In our set up, what I always advise the team, is that they should go through the user stories applied to the sprint planning meeting so that they know for sure what are the questions they have for the product owner. So that helps. So now, a set of the team has gone through the user stories. They know what is there in the background. They join the meeting. So how it helps is, whatever question that he has, the product owner answers it during the sprint planning meeting itself. So, the sprint planning meeting is the start of the sprint. So, if we have any doubt or query, that is answered at the very beginning rather than bringing up questions towards the end. That gives the team of the entire duration of the sprint, to work on something, rather than if it was the question was asked later on. This collaboration with the PO helps better understanding of the user stories. Then the team knows what to develop and test. What I have experiences, it a good collaboration with a knowledgeable PO reduces defects. We receive feedback on ongoing bases and we rectify quickly.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>User Story Clarity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n{\n\t"Initial Claim": "✅ Yes, the code \\"User Story Clarity\\" should be retained.",\n\t"Explanation": "The distinction between the Psychologist\'s focus on alignment on objectives and the Legal Professional\'s emphasis on project goals highlights the varying interpretations of clarity in user stories, which is essential for understanding different perspectives in the sprint planning process."\n}', 'Role2(Product Owners): Round 1\n{\n\t"Initial Claim": "✅ Yes, the code \\"User Story Clarity\\" should be retained.",\n\t"Explanation": "The differing focuses on alignment—objectives versus project goals—highlight the nuanced interpretations of clarity in user stories, which is essential for understanding team dynamics and collaboration."\n}', 'Role3(Scrum Masters): Round 1\n{\n\t"Initial Claim": "✅ Yes, the code \\"User Story Clarity\\" should be retained.",\n\t"Explanation": "The distinction between the Psychologist\'s focus on alignment on objectives and the Legal Professional\'s emphasis on project goals highlights a critical difference in interpretation of clarity, which is essential for understanding user stories effectively."\n}']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\n{\n\t"Evidence_Literature": {\n\t\t"Author": "Cohn, M.",\n\t\t"Year": "2004",\n\t\t"Title": "User Stories Applied: For Agile Software Development",\n\t\t"DOI_or_Link": "https://www.amazon.com/User-Stories-Applied-Agile-Development/dp/0321205688",\n\t\t"Summary": "This book emphasizes the importance of clear user stories in agile development, supporting the claim that clarity in user stories is crucial for aligning team objectives and project goals."\n\t},\n\t"Evidence_Content": {\n\t\t"Observation": "The text states, \\"the team knows what to develop and test,\\" indicating the necessity of clarity in user stories.",\n\t\t"Relevance": "This observation underscores the importance of understanding user stories to ensure effective collaboration and project execution."\n\t},\n\t"Evidence_Logic": {\n\t\t"Reasoning": "Retaining the code on User Story Clarity ensures that both objectives and project goals are addressed, leading to a more comprehensive understanding.",\n\t\t"Impact": "This enhances efficiency and clarity in the sprint planning process, reducing the likelihood of misunderstandings and rework."\n\t}\n}', 'Role2(Product Owners): Round 2\n{\n\t"Evidence_Literature": {\n\t\t"Author": "Boehm, B. W.",\n\t\t"Year": "1988",\n\t\t"Title": "A Spiral Model of Software Development and Enhancement",\n\t\t"DOI_or_Link": "https://doi.org/10.1145/74334.74337",\n\t\t"Summary": "This paper discusses the importance of clear requirements and user stories in software development, emphasizing that clarity leads to better alignment and fewer defects, supporting the claim about the significance of user story clarity."\n\t},\n\t"Evidence_Content": {\n\t\t"Observation": "The text states, \\"whatever question that he has, the product owner answers it during the sprint planning meeting itself,\\" indicating the importance of clarity in user stories.",\n\t\t"Relevance": "This observation underscores the necessity of understanding user stories to facilitate effective communication and collaboration."\n\t},\n\t"Evidence_Logic": {\n\t\t"Reasoning": "Retaining the code emphasizes the need for clarity in user stories, which is crucial for aligning team efforts and reducing misunderstandings.",\n\t\t"Impact": "This focus on clarity can enhance efficiency by minimizing the time spent on clarifying questions later in the process."\n\t}\n}', 'Role3(Scrum Masters): Round 2\n{\n\t"Evidence_Literature": {\n\t\t"Author": "Boehm, B. W., &amp; Turner, R.",\n\t\t"Year": "2004",\n\t\t"Title": "Balancing Agility and Discipline: A Guide for the Perplexed",\n\t\t"DOI_or_Link": "https://doi.org/10.1007/978-1-4471-2939-1",\n\t\t"Summary": "This book discusses the importance of aligning project goals with user needs, emphasizing that clarity in user stories is crucial for successful project outcomes."\n\t},\n\t"Evidence_Content": {\n\t\t"Observation": "The text states, \\"the team knows what to develop and test,\\" indicating the necessity of clear user stories.",\n\t\t"Relevance": "This observation underscores the importance of clarity in user stories for effective project execution."\n\t},\n\t"Evidence_Logic": {\n\t\t"Reasoning": "Retaining the code emphasizes the need for alignment on both objectives and project goals, which can enhance team collaboration.",\n\t\t"Impact": "This clarity can lead to improved efficiency and reduced misunderstandings during the development process."\n\t}\n}']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Round 3: ['Role1(Management): Round 3\n{\n\t"Role": "Engineer",\n\t"TwoLayerMechanism": {\n\t\t"DecisionPattern": "In my role, I prioritize accuracy over efficiency, as understanding user stories clearly is essential for effective project execution and minimizing defects.",\n\t\t"Self-Check": {\n\t\t\t"First_Stance": "I continue to support my initial claim that the code \'User Story Clarity\' should be retained.",\n\t\t\t"Then_EvidenceConsistency": "The evidence from Round 2, particularly the observation that \'the team knows what to develop and test,\' reinforces my claim by highlighting the necessity of clarity in user stories for effective collaboration and project execution.",\n\t\t\t"Finally_LimitationsDecision": "While the evidence is strong, I acknowledge that it may not fully capture all dimensions of user story clarity. However, the importance of clarity remains paramount, leading me to \'Continue to Support.\'"\n\t\t},\n\t\t"Cross-Debate": {\n\t\t\t"PerRoleAnalysis": [\n\t\t\t\t{\n\t\t\t\t\t"OtherRole": "Psychologist",\n\t\t\t\t\t"Example": "The Psychologist emphasizes alignment on objectives, which is a valid perspective on user story clarity.",\n\t\t\t\t\t"Counterexample": "However, this focus may overlook the technical aspects of project goals that are crucial for engineers, as highlighted by the Legal Professional\'s emphasis.",\n\t\t\t\t\t"Summary": "While I appreciate the Psychologist\'s viewpoint, I find it somewhat limited in scope compared to the broader implications of project goals."\n\t\t\t\t},\n\t\t\t\t{\n\t\t\t\t\t"OtherRole": "Legal Professional",\n\t\t\t\t\t"Example": "The Legal Professional\'s focus on advocating for marginalized voices aligns with the need for clarity in user stories to ensure all perspectives are considered.",\n\t\t\t\t\t"Counterexample": "However, their emphasis on social experience may detract from the technical clarity needed for effective sprint planning, which is critical in engineering.",\n\t\t\t\t\t"Summary": "I find common ground with the Legal Professional on the importance of inclusivity, but I diverge on the prioritization of technical clarity."\n\t\t\t\t}\n\t\t\t],\n\t\t\t"Consensus": "The Psychologist and Legal Professional both recognize the importance of clarity, but their focuses differ, with the Psychologist leaning towards objectives and the Legal Professional towards social implications.",\n\t\t\t"Divergence": "I conflict with the Psychologist\'s narrower focus on objectives and the Legal Professional\'s emphasis on social experience, as I prioritize technical clarity for project success.",\n\t\t\t"HybridPerspective": "Combining the textual evidence of the importance of clarity with logical reasoning about the need for technical precision provides a more comprehensive understanding of user story clarity."\n\t\t}\n\t}\n}', 'Role2(Product Owners): Round 3\n{\n\t"Role": "Psychologist",\n\t"TwoLayerMechanism": {\n\t\t"DecisionPattern": "In my role, I prioritize accuracy over efficiency, as understanding user stories deeply is essential for fostering meaningful collaboration and inclusivity.",\n\t\t"Self-Check": {\n\t\t\t"First_Stance": "I continue to support my initial claim that the code \'User Story Clarity\' should be retained.",\n\t\t\t"Then_EvidenceConsistency": "The evidence from Round 2, particularly the observation that \'whatever question that he has, the product owner answers it during the sprint planning meeting itself,\' reinforces my claim by highlighting the necessity of clarity in user stories for effective communication.",\n\t\t\t"Finally_LimitationsDecision": "While the evidence is strong, I acknowledge that it may not cover all aspects of user story clarity. However, the importance of clarity remains paramount, leading me to decisively \'Continue to Support.\'"\n\t\t},\n\t\t"Cross-Debate": {\n\t\t\t"PerRoleAnalysis": [\n\t\t\t\t{\n\t\t\t\t\t"OtherRole": "Legal Professional",\n\t\t\t\t\t"Example": "The Legal Professional emphasizes the importance of advocating for marginalized voices, which aligns with the need for clarity in user stories to ensure all perspectives are considered.",\n\t\t\t\t\t"Counterexample": "However, their focus on project goals rather than objectives may overlook the broader implications of user story clarity in fostering inclusivity.",\n\t\t\t\t\t"Summary": "While we both value clarity, our interpretations diverge on the focus of alignment, with my stance prioritizing objectives."\n\t\t\t\t},\n\t\t\t\t{\n\t\t\t\t\t"OtherRole": "Engineer",\n\t\t\t\t\t"Example": "The Engineer\'s emphasis on efficiency and performance resonates with my belief in the importance of clear communication.",\n\t\t\t\t\t"Counterexample": "However, their focus on data-driven solutions may lead to a more quantitative approach, potentially sidelining the qualitative nuances that I prioritize.",\n\t\t\t\t\t"Summary": "We share a common goal of clarity, but our methodologies differ, with my approach leaning towards qualitative insights."\n\t\t\t\t}\n\t\t\t],\n\t\t\t"Consensus": "The Psychologist and Legal Professional both emphasize the importance of understanding diverse perspectives, aligning closely on the need for clarity in user stories.",\n\t\t\t"Divergence": "The Engineer\'s focus on efficiency may conflict with my qualitative approach, as it risks prioritizing speed over the depth of understanding.",\n\t\t\t"HybridPerspective": "Combining the emphasis on clarity from all roles, I advocate for a balanced approach that values both qualitative insights and efficient processes."\n\t\t}\n\t}\n}', 'Role3(Scrum Masters): Round 3\n{\n\t"Role": "Legal Professional",\n\t"TwoLayerMechanism": {\n\t\t"DecisionPattern": "In my role, accuracy takes precedence over efficiency, as understanding user stories clearly is essential for equitable legal practices.",\n\t\t"Self-Check": {\n\t\t\t"First_Stance": "I continue to support my initial claim that the code \'User Story Clarity\' should be retained.",\n\t\t\t"Then_EvidenceConsistency": "The evidence from Round 2, particularly the observation that \'the team knows what to develop and test,\' reinforces my claim by highlighting the necessity of clarity in user stories for effective project execution.",\n\t\t\t"Finally_LimitationsDecision": "While the evidence is strong, I acknowledge that it may not fully capture all dimensions of user story clarity. However, the importance of clarity remains paramount, leading me to \'Continue to Support.\'"\n\t\t},\n\t\t"Cross-Debate": {\n\t\t\t"PerRoleAnalysis": [\n\t\t\t\t{\n\t\t\t\t\t"OtherRole": "Psychologist",\n\t\t\t\t\t"Example": "The Psychologist emphasizes the importance of alignment on objectives, which is a valid perspective on user story clarity.",\n\t\t\t\t\t"Counterexample": "However, this focus may overlook the specific project goals that are critical for legal contexts, as highlighted in my claim.",\n\t\t\t\t\t"Summary": "While we both value clarity, our interpretations diverge on the emphasis of objectives versus project goals."\n\t\t\t\t},\n\t\t\t\t{\n\t\t\t\t\t"OtherRole": "Engineer",\n\t\t\t\t\t"Example": "The Engineer\'s focus on efficiency and performance aligns with the need for clear user stories to enhance productivity.",\n\t\t\t\t\t"Counterexample": "Yet, this perspective may prioritize speed over the nuanced understanding of user needs, which is essential in legal contexts.",\n\t\t\t\t\t"Summary": "We share a common goal of clarity, but our approaches differ in prioritizing efficiency versus comprehensive understanding."\n\t\t\t\t}\n\t\t\t],\n\t\t\t"Consensus": "The Psychologist and Engineer both recognize the importance of clarity in user stories, aligning with my stance on its necessity.",\n\t\t\t"Divergence": "However, we diverge in our interpretations of what clarity entails, with differing priorities on objectives versus project goals.",\n\t\t\t"HybridPerspective": "Combining our perspectives, I see that while clarity is essential, the context of its application—whether in legal, psychological, or engineering frameworks—shapes its interpretation."\n\t\t}\n\t}\n}']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'User Story Clarity\' should be retained.",\n\t"Final Explanation": "I continue to support my initial claim because the distinction between the Psychologist\'s focus on objectives and the Legal Professional\'s emphasis on project goals highlights the multifaceted nature of clarity in user stories, which is essential for effective collaboration in sprint planning.",\n\t"Self-Reflection": "Strengths: The strongest evidence is the observation that \'the team knows what to develop and test,\' emphasizing the necessity of clarity for project success. Weaknesses: A limitation is the potential oversimplification of clarity, as it encompasses both technical and social dimensions that may not be fully addressed. Future Consideration: Further qualitative research on team dynamics and user story interpretation could enhance understanding of clarity\'s role in agile methodologies."\n}', 'Role2(Product Owners): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'User Story Clarity\' should be retained.",\n\t"Final Explanation": "I continue to support my initial claim because the emphasis on clarity in user stories is essential for effective collaboration and understanding among team members, aligning with my qualitative focus on culture and meaning.",\n\t"Self-Reflection": "The strongest evidence supporting my decision is the observation that addressing questions during the sprint planning meeting enhances clarity and reduces defects. However, a limitation is the potential oversight of quantitative aspects that may also contribute to clarity. Future consideration could involve exploring how both qualitative and quantitative measures can be integrated to enhance understanding in user stories."\n}', 'Role3(Scrum Masters): Round 4\n{\n\t"Final Claim": "✅ Yes, the code \'User Story Clarity\' should be retained.",\n\t"Final Explanation": "I continue to support my initial claim because the distinction between the Psychologist\'s focus on objectives and the Legal Professional\'s emphasis on project goals highlights the multifaceted nature of clarity in user stories, which is essential for effective collaboration.",\n\t"Self-Reflection": "Strengths: The strongest evidence comes from the observation that clear user stories enable the team to know what to develop and test, reinforcing the necessity of clarity. Weaknesses: A limitation is that the differing interpretations of clarity may not fully encompass all aspects of user stories. Future Consideration: Further qualitative research could explore how different roles interpret clarity in user stories to enhance understanding across disciplines."\n}']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
